--- a/training_results_freeze.xlsx
+++ b/training_results_freeze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tese\fire_risk_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C25F329-FAF7-4C94-A6B5-3B9C750AC9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E03B95-27D4-479F-9356-3511237FDA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -156,16 +164,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="A1:L25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -552,45 +562,45 @@
         <v>0.74360000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <v>83.045977011494259</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>78.401727861771064</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>0.38583086261695082</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>0.47839086314384971</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>84.46</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>0.81479999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -628,7 +638,7 @@
         <v>0.68969999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,7 +676,7 @@
         <v>0.74850000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -704,7 +714,7 @@
         <v>0.73680000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -742,7 +752,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -780,7 +790,7 @@
         <v>0.72189999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -818,45 +828,45 @@
         <v>0.7349</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
         <v>76.724137931034477</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>82.649388048956084</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>0.49792735041542491</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>0.39646446435102101</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <v>82.9</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>0.76919999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -887,14 +897,14 @@
       <c r="J11" s="3">
         <v>0.42047559418554958</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>75.650000000000006</v>
       </c>
       <c r="L11" s="3">
         <v>0.72729999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -932,7 +942,7 @@
         <v>0.77010000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -970,7 +980,7 @@
         <v>0.76829999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1018,7 @@
         <v>0.72829999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>0.72729999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>0.74529999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1122,307 +1132,307 @@
         <v>0.77780000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
         <v>81.034482758620683</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>79.553635709143265</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>0.41362825798040093</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>0.44744492544867531</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>70.98</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>0.71130000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
         <v>81.609195402298852</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="8">
         <v>82.073434125269983</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="8">
         <v>0.41781204380095011</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="8">
         <v>0.38148798866347328</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="8">
         <v>82.38</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
         <v>81.896551724137936</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <v>79.265658747300222</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>0.38737774166193878</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
         <v>0.43761153583382739</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <v>77.2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <v>0.71430000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
         <v>81.321839080459768</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <v>76.889848812095039</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>0.41434156623753632</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>0.4857324694936303</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <v>78.239999999999995</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <v>0.68659999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
         <v>85.05747126436782</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <v>81.209503239740826</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>0.38436303253878251</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="4">
         <v>0.41150012445347062</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>73.06</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <v>0.70789999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
         <v>81.609195402298852</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <v>80.921526277897769</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
         <v>0.38483897935260419</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <v>0.40163494560910368</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <v>74.09</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <v>0.72219999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
         <v>82.758620689655174</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>79.697624190064801</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <v>0.40462556430561969</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
         <v>0.43456784121949099</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <v>77.72</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <v>0.71140000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
         <v>77.8735632183908</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <v>80.345572354211669</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>0.47816812958229671</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <v>0.41985266758450152</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <v>81.87</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>0.79769999999999996</v>
       </c>
     </row>
